--- a/collect-common/collect-container/src/test/resources/ExcelExportTpl.xlsx
+++ b/collect-common/collect-container/src/test/resources/ExcelExportTpl.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nijianfeng/Documents/projects/netease-kaola/netease-common-collect/collect-container/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4698FF91-1C5A-42F3-9DA4-754460952DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="change" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>字符串</t>
   </si>
@@ -50,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,21 +397,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" collapsed="1"/>
+    <col min="1" max="1" width="8.875" style="1" collapsed="1"/>
     <col min="2" max="4" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1" collapsed="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -468,4 +465,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FC8D9A-93FA-46E1-A581-4CC8EAC8A22E}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>